--- a/dev/Requisitos.xlsx
+++ b/dev/Requisitos.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -133,12 +133,18 @@
   </si>
   <si>
     <t>Estudar GRID</t>
+  </si>
+  <si>
+    <t>Identar páginas Existentes</t>
+  </si>
+  <si>
+    <t>EP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,6 +192,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,7 +465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -468,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,14 +908,18 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
+      <c r="C27" s="4"/>
       <c r="F27" s="1" t="s">
         <v>33</v>
       </c>

--- a/dev/Requisitos.xlsx
+++ b/dev/Requisitos.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="PADROES" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -120,9 +121,6 @@
     <t>Atualizar tabelas do sistema</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Definir fórmulas das perícias de cada jogador</t>
   </si>
   <si>
@@ -138,14 +136,83 @@
     <t>Identar páginas Existentes</t>
   </si>
   <si>
-    <t>EP</t>
+    <t>Inserir site e redes sociais das equipes</t>
+  </si>
+  <si>
+    <t>Grito de Guerra</t>
+  </si>
+  <si>
+    <t>Líder</t>
+  </si>
+  <si>
+    <t>Oportunista</t>
+  </si>
+  <si>
+    <t>Visionário</t>
+  </si>
+  <si>
+    <t>Reflexos rápidos</t>
+  </si>
+  <si>
+    <t>Executor</t>
+  </si>
+  <si>
+    <t>Defensor</t>
+  </si>
+  <si>
+    <t>Histórico de Atributos por semestree</t>
+  </si>
+  <si>
+    <t>Dividir fotos em jpg (miniatura)(fundo preto) e png (perfil)</t>
+  </si>
+  <si>
+    <t>Arrumar tabela de paises e suas bandeiras</t>
+  </si>
+  <si>
+    <t>Definir cores de posições</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Em Progresso</t>
+  </si>
+  <si>
+    <t>Completo</t>
+  </si>
+  <si>
+    <t>NOMECLATURA DE ARQUIVOS</t>
+  </si>
+  <si>
+    <t>Jogador:</t>
+  </si>
+  <si>
+    <t>Equipe:</t>
+  </si>
+  <si>
+    <t>Campeonato:</t>
+  </si>
+  <si>
+    <t>Liga:</t>
+  </si>
+  <si>
+    <t>0A0A0-nick.png</t>
+  </si>
+  <si>
+    <t>0A-equipe.png</t>
+  </si>
+  <si>
+    <t>0A-liga.png</t>
+  </si>
+  <si>
+    <t>0A0-campeonato.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,13 +227,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -181,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,11 +273,248 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -465,7 +782,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -473,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,9 +803,15 @@
     <col min="3" max="3" width="55.140625" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -508,7 +831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -525,10 +848,10 @@
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -545,15 +868,36 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -562,10 +906,10 @@
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -579,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,10 +940,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -613,10 +957,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -630,10 +974,10 @@
         <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -647,10 +991,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -664,10 +1008,10 @@
         <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -681,10 +1025,10 @@
         <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -698,10 +1042,10 @@
         <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -715,10 +1059,10 @@
         <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -732,10 +1076,10 @@
         <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -749,10 +1093,10 @@
         <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -766,7 +1110,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -783,7 +1127,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -800,7 +1144,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -817,7 +1161,7 @@
         <v>21</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -834,7 +1178,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -851,7 +1195,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -868,7 +1212,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -876,10 +1220,16 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -887,10 +1237,16 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,10 +1254,16 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -909,51 +1271,101 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
+      <c r="C28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
+      <c r="C29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
+      <c r="C30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
+      <c r="C31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
       <c r="F31" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,11 +1373,80 @@
         <v>30</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"PENDENTE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"EM PROGRESSO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"COMPLETO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/dev/Requisitos.xlsx
+++ b/dev/Requisitos.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -10,6 +10,9 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="PADROES" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$N$31</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -100,9 +103,6 @@
     <t>Criar histórico de cada equipe</t>
   </si>
   <si>
-    <t>Criar conquistas de cada equipe</t>
-  </si>
-  <si>
     <t>Definir bandeiras dos países</t>
   </si>
   <si>
@@ -206,12 +206,15 @@
   </si>
   <si>
     <t>0A0-campeonato.png</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,117 +277,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -446,7 +346,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
       <border>
@@ -463,56 +363,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -782,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -790,10 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,17 +652,18 @@
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="55.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -822,16 +674,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -841,17 +696,20 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
+      <c r="D2" s="1">
+        <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -861,531 +719,611 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
+      <c r="D3" s="1">
+        <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>41</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>42</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>43</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>44</v>
       </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
+      <c r="D5" s="1">
+        <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
+      <c r="D6" s="1">
+        <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
+      <c r="D7" s="1">
+        <v>5</v>
       </c>
       <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
+      <c r="D8" s="1">
+        <v>4</v>
       </c>
       <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
+      <c r="D9" s="1">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
+      <c r="D10" s="1">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
+      <c r="D11" s="1">
+        <v>3</v>
       </c>
       <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
+      <c r="D12" s="1">
+        <v>4</v>
       </c>
       <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>17</v>
+      <c r="D13" s="1">
+        <v>5</v>
       </c>
       <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
-        <v>17</v>
+      <c r="D14" s="1">
+        <v>5</v>
       </c>
       <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>17</v>
+      <c r="D15" s="1">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>17</v>
+      <c r="D16" s="1">
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>17</v>
+      <c r="D17" s="1">
+        <v>3</v>
       </c>
       <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
-        <v>17</v>
+      <c r="D18" s="1">
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" t="s">
-        <v>17</v>
+      <c r="D19" s="1">
+        <v>2</v>
       </c>
       <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
-        <v>17</v>
+      <c r="D20" s="1">
+        <v>4</v>
       </c>
       <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="D21" t="s">
-        <v>17</v>
+      <c r="D21" s="1">
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
       </c>
       <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" t="s">
-        <v>15</v>
+      <c r="D23" s="1">
+        <v>1</v>
       </c>
       <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="D24" t="s">
-        <v>17</v>
+      <c r="D24" s="1">
+        <v>3</v>
       </c>
       <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="D25" t="s">
-        <v>17</v>
+      <c r="D25" s="1">
+        <v>1</v>
       </c>
       <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
-        <v>15</v>
+      <c r="D26" s="6">
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D28" t="s">
-        <v>15</v>
+      <c r="D28" s="6">
+        <v>3</v>
       </c>
       <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D29" t="s">
-        <v>17</v>
+      <c r="D29" s="6">
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D30" t="s">
-        <v>15</v>
+      <c r="D30" s="6">
+        <v>1</v>
       </c>
       <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>50</v>
+      <c r="G31" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"PENDENTE"</formula>
+  <autoFilter ref="A1:N31">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Em Progresso"/>
+        <filter val="Pendente"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"COMPLETO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"EM PROGRESSO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"COMPLETO"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"PENDENTE"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1409,41 +1347,41 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
